--- a/US_SErvo_WEMOS_states.xlsx
+++ b/US_SErvo_WEMOS_states.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NH5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NH5\Documents\VScode\Train_Road_Blocker_Wemos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Train states</t>
   </si>
@@ -101,16 +101,37 @@
     <t>Passed right, towards left</t>
   </si>
   <si>
-    <t>Arriving left after passing right</t>
-  </si>
-  <si>
-    <t>passing left after arriving from right</t>
-  </si>
-  <si>
     <t>still passing left after arrivng from right</t>
   </si>
   <si>
     <t>Finished passing left, back to state 0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Error state/ Wait here for debug</t>
+  </si>
+  <si>
+    <t>ERROR 1: Arrived to next sensor before closing this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR 2: should not go back after </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR 3: should not go back after </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR 4: should not go back after </t>
+  </si>
+  <si>
+    <t>between right and left</t>
+  </si>
+  <si>
+    <t>in left sensor after passing right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR 5: should not go back after </t>
   </si>
 </sst>
 </file>
@@ -442,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,22 +609,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -611,22 +632,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,40 +652,42 @@
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,72 +715,55 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -780,9 +783,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -791,112 +794,179 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
         <v>28</v>
       </c>
     </row>
